--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657336.3430660489</v>
+        <v>653324.5403339524</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140341</v>
+        <v>6432656.96014034</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5496626.174351709</v>
+        <v>5496626.174351708</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>128.7055413062054</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9916288206924</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442482</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
-        <v>129.1209942387631</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>19.26238409082529</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>278.6761088604285</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>305.6042754116839</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>116.0437998378218</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
@@ -1818,7 +1818,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.4550591988946</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>360.1869477020733</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>65.15902731980107</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>40.31901659852168</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>128.6838898800409</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>255.177215040588</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>121.7236992679877</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.3719788349869</v>
+        <v>81.81915456326735</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
-        <v>202.5556993504673</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>175.3267476424509</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.48994447064856</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>385.864084061307</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>139.2348366166958</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.48994447064856</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2797,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>205.3933218758463</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>50.05366385506043</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -3031,10 +3031,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>57.070502565092</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0.7816442772537431</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>389.7838137938496</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>107.1749907508747</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>26.511052199615</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>96.09215978169242</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>159.7514797169607</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>132.3423813303365</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>164.4989214822514</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>200.9839956428873</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>122.5365168313129</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>334.0468311410442</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>42.33846267624163</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>176.5471653014108</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3979,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>384.030034769271</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>58.04236988161364</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>103.8620264166899</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>152.7541411592853</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -4185,25 +4185,25 @@
         <v>6.48994447064856</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>230.2038028775006</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1117.520430258327</v>
+        <v>1447.154758052628</v>
       </c>
       <c r="C11" t="n">
-        <v>1117.520430258327</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D11" t="n">
-        <v>1117.520430258327</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E11" t="n">
-        <v>691.5434904061843</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>691.5434904061843</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G11" t="n">
-        <v>289.2116090238626</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
         <v>437.0691715610004</v>
@@ -5056,37 +5056,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="W11" t="n">
-        <v>1529.240429090579</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="X11" t="n">
-        <v>1117.520430258327</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="Y11" t="n">
-        <v>1117.520430258327</v>
+        <v>1867.003122344158</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J12" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
         <v>1002.337654088804</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.598571124369</v>
+        <v>845.4008954910278</v>
       </c>
       <c r="C13" t="n">
-        <v>752.6260080032849</v>
+        <v>673.4283323699437</v>
       </c>
       <c r="D13" t="n">
-        <v>589.3092351300556</v>
+        <v>510.1115594967144</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>343.903353649568</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574696</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.745429307994</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
-        <v>1543.240684449514</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>2000.790168623401</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T13" t="n">
-        <v>1761.297780717545</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U13" t="n">
-        <v>1481.162442343827</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V13" t="n">
-        <v>1199.450974951856</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W13" t="n">
-        <v>924.598571124369</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X13" t="n">
-        <v>924.598571124369</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="Y13" t="n">
-        <v>924.598571124369</v>
+        <v>1035.566864203093</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>894.7803300931902</v>
+        <v>1003.890654549757</v>
       </c>
       <c r="C14" t="n">
-        <v>467.8796001064903</v>
+        <v>1003.890654549757</v>
       </c>
       <c r="D14" t="n">
-        <v>467.8796001064903</v>
+        <v>1003.890654549757</v>
       </c>
       <c r="E14" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>1608.808787422829</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V14" t="n">
-        <v>1608.808787422829</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W14" t="n">
-        <v>1300.1176001383</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="X14" t="n">
-        <v>1300.1176001383</v>
+        <v>1409.227924594867</v>
       </c>
       <c r="Y14" t="n">
-        <v>894.7803300931902</v>
+        <v>1003.890654549757</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426539</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283643</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838658</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180613</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
         <v>1482.454583745858</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.5251945621989</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C16" t="n">
-        <v>706.5251945621989</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D16" t="n">
-        <v>589.3092351300556</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E16" t="n">
-        <v>423.1010292829092</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F16" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
         <v>251.2392550574696</v>
@@ -5433,31 +5433,31 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J16" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>730.2862354305481</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>1259.384536842193</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N16" t="n">
-        <v>1373.879791983713</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O16" t="n">
-        <v>1854.036139055046</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
         <v>2131.215415329222</v>
@@ -5466,22 +5466,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818623</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426652</v>
+        <v>1414.924247332507</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.431859426652</v>
+        <v>1280.121157232613</v>
       </c>
       <c r="X16" t="n">
-        <v>932.8679628724568</v>
+        <v>1280.121157232613</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.5251945621989</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1318.07295090819</v>
+        <v>1682.750908648796</v>
       </c>
       <c r="C17" t="n">
-        <v>891.17222092149</v>
+        <v>1255.850178662097</v>
       </c>
       <c r="D17" t="n">
-        <v>467.8796001064903</v>
+        <v>832.5575578470969</v>
       </c>
       <c r="E17" t="n">
-        <v>467.8796001064903</v>
+        <v>406.5806179949544</v>
       </c>
       <c r="F17" t="n">
         <v>42.75541829589048</v>
@@ -5512,28 +5512,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.953715481593</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V17" t="n">
-        <v>1714.464300607843</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W17" t="n">
-        <v>1318.07295090819</v>
+        <v>1682.750908648796</v>
       </c>
       <c r="X17" t="n">
-        <v>1318.07295090819</v>
+        <v>1682.750908648796</v>
       </c>
       <c r="Y17" t="n">
-        <v>1318.07295090819</v>
+        <v>1682.750908648796</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>62.98439029745217</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426539</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L18" t="n">
-        <v>496.0652591283643</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.2366872889068</v>
+        <v>551.9463730385928</v>
       </c>
       <c r="C19" t="n">
-        <v>502.2641241678227</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="D19" t="n">
-        <v>338.9473512945934</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="E19" t="n">
-        <v>172.739145447447</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F19" t="n">
-        <v>172.739145447447</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G19" t="n">
-        <v>172.739145447447</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H19" t="n">
         <v>42.75541829589048</v>
@@ -5676,49 +5676,49 @@
         <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8925275891185</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M19" t="n">
-        <v>546.868586226072</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1642.80643034845</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>1745.26045311658</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X19" t="n">
-        <v>900.5794555991647</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.2366872889068</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.5101809631511</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C20" t="n">
-        <v>300.5101809631511</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D20" t="n">
-        <v>300.5101809631511</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>300.5101809631511</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>300.5101809631511</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
         <v>42.75541829589048</v>
@@ -5749,10 +5749,10 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K20" t="n">
         <v>437.0691715610003</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U20" t="n">
-        <v>1879.576579873195</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="V20" t="n">
-        <v>1522.087164999444</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="W20" t="n">
-        <v>1125.695815299791</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="X20" t="n">
-        <v>1125.695815299791</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.3585452546812</v>
+        <v>1744.049890760332</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>62.98439029745217</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L21" t="n">
-        <v>653.0519528483962</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M21" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N21" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O21" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P21" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q21" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.875916770652</v>
+        <v>552.7979614895605</v>
       </c>
       <c r="C22" t="n">
-        <v>343.903353649568</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="D22" t="n">
-        <v>343.903353649568</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="E22" t="n">
-        <v>343.903353649568</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F22" t="n">
-        <v>343.903353649568</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G22" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H22" t="n">
         <v>42.75541829589048</v>
@@ -5910,25 +5910,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>523.2582343051843</v>
+        <v>895.0222295403249</v>
       </c>
       <c r="M22" t="n">
-        <v>924.5709105292751</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N22" t="n">
-        <v>1437.099088512676</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794524</v>
@@ -5940,22 +5940,22 @@
         <v>2131.215415329222</v>
       </c>
       <c r="T22" t="n">
-        <v>2011.647759940347</v>
+        <v>2048.569804659255</v>
       </c>
       <c r="U22" t="n">
-        <v>1731.512421566629</v>
+        <v>1768.434466285537</v>
       </c>
       <c r="V22" t="n">
-        <v>1449.800954174657</v>
+        <v>1486.722998893566</v>
       </c>
       <c r="W22" t="n">
-        <v>1174.94855034717</v>
+        <v>1211.870595066079</v>
       </c>
       <c r="X22" t="n">
-        <v>932.3846537929755</v>
+        <v>969.3066985118842</v>
       </c>
       <c r="Y22" t="n">
-        <v>706.0418854827176</v>
+        <v>742.9639302016262</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>911.1718127443041</v>
+        <v>1740.404424113326</v>
       </c>
       <c r="C23" t="n">
-        <v>911.1718127443041</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="D23" t="n">
-        <v>911.1718127443041</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>485.1948728921618</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
         <v>60.07069108156194</v>
@@ -5992,22 +5992,22 @@
         <v>239.5513323928761</v>
       </c>
       <c r="K23" t="n">
-        <v>982.926134527205</v>
+        <v>454.384444346672</v>
       </c>
       <c r="L23" t="n">
-        <v>1255.442143051037</v>
+        <v>1197.759246481001</v>
       </c>
       <c r="M23" t="n">
-        <v>1563.814994331854</v>
+        <v>1506.132097761818</v>
       </c>
       <c r="N23" t="n">
-        <v>1877.927384601845</v>
+        <v>1820.244488031809</v>
       </c>
       <c r="O23" t="n">
-        <v>2172.367827602369</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P23" t="n">
-        <v>2418.059520943331</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q23" t="n">
         <v>2914.642355556173</v>
@@ -6019,22 +6019,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2740.304181116399</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U23" t="n">
-        <v>2482.10984619507</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V23" t="n">
-        <v>2124.620431321319</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="W23" t="n">
-        <v>1728.229081621666</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="X23" t="n">
-        <v>1316.509082789414</v>
+        <v>1917.50214900469</v>
       </c>
       <c r="Y23" t="n">
-        <v>911.1718127443041</v>
+        <v>1740.404424113326</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K24" t="n">
-        <v>307.129942291636</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140358</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,19 +6126,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
@@ -6162,10 +6162,10 @@
         <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6174,25 +6174,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>910.2640418832616</v>
+        <v>1731.457279055007</v>
       </c>
       <c r="C26" t="n">
-        <v>483.3633118965617</v>
+        <v>1731.457279055007</v>
       </c>
       <c r="D26" t="n">
-        <v>60.07069108156194</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E26" t="n">
-        <v>60.07069108156194</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F26" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6229,25 +6229,25 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542981</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.62967157813</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M26" t="n">
-        <v>1862.004473712459</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N26" t="n">
-        <v>2176.11686398245</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2117.083011832651</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W26" t="n">
-        <v>2117.083011832651</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="X26" t="n">
-        <v>1705.363013000398</v>
+        <v>2136.794549100116</v>
       </c>
       <c r="Y26" t="n">
-        <v>1300.025742955289</v>
+        <v>1731.457279055007</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>316.3256816434192</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K27" t="n">
-        <v>464.1166360116675</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L27" t="n">
-        <v>670.3672256340674</v>
+        <v>536.8378377584477</v>
       </c>
       <c r="M27" t="n">
-        <v>914.1974265895689</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N27" t="n">
-        <v>1166.822492223764</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O27" t="n">
-        <v>1394.314356246623</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P27" t="n">
-        <v>1573.755009897445</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q27" t="n">
         <v>1685.594465388265</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6390,19 +6390,19 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6411,25 +6411,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1543.708983630198</v>
+        <v>1315.280242302726</v>
       </c>
       <c r="C29" t="n">
-        <v>1116.808253643498</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="D29" t="n">
-        <v>693.5156328284986</v>
+        <v>888.3795123160261</v>
       </c>
       <c r="E29" t="n">
-        <v>267.5386929763562</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="F29" t="n">
-        <v>267.5386929763562</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G29" t="n">
-        <v>267.5386929763562</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,28 +6463,28 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>239.5513323928761</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>805.1497020512063</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>1077.665710575038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1386.038561855855</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>1700.150952125847</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>1994.591395126371</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.277346753981</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W29" t="n">
-        <v>2375.277346753981</v>
+        <v>2191.025133058619</v>
       </c>
       <c r="X29" t="n">
-        <v>1963.557347921728</v>
+        <v>2140.465876639366</v>
       </c>
       <c r="Y29" t="n">
-        <v>1963.557347921728</v>
+        <v>1735.128606594256</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434192</v>
       </c>
       <c r="K30" t="n">
-        <v>307.129942291636</v>
+        <v>464.1166360116675</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140358</v>
+        <v>670.3672256340674</v>
       </c>
       <c r="M30" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895689</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6597,61 +6597,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I31" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K31" t="n">
-        <v>397.2373026266567</v>
+        <v>431.0790168988078</v>
       </c>
       <c r="L31" t="n">
-        <v>883.1206864098697</v>
+        <v>916.9624006820208</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765197</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057984</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1649.386792369762</v>
+        <v>1311.608914763477</v>
       </c>
       <c r="C32" t="n">
-        <v>1222.486062383063</v>
+        <v>1311.608914763477</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.839090095091</v>
+        <v>888.3162939484771</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.839090095091</v>
+        <v>888.3162939484771</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>463.1921121378773</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.86023075555562</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,25 +6700,25 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>631.2805511005022</v>
+        <v>443.9121332502909</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542981</v>
+        <v>658.7452452040868</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.62967157813</v>
+        <v>931.2612537279186</v>
       </c>
       <c r="M32" t="n">
-        <v>1427.002522858947</v>
+        <v>1239.634105008736</v>
       </c>
       <c r="N32" t="n">
-        <v>2045.595402641462</v>
+        <v>1553.746495278727</v>
       </c>
       <c r="O32" t="n">
-        <v>2340.035845641986</v>
+        <v>1848.186938279251</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982948</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6730,22 +6730,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>2474.572426706402</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="X32" t="n">
-        <v>2474.572426706402</v>
+        <v>2136.794549100116</v>
       </c>
       <c r="Y32" t="n">
-        <v>2069.235156661292</v>
+        <v>1731.457279055007</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>80.29966308312362</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283253</v>
       </c>
       <c r="K33" t="n">
-        <v>307.129942291636</v>
+        <v>569.5721362965736</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140358</v>
+        <v>775.8227259189734</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695372</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503733</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526592</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P33" t="n">
-        <v>1573.755009897445</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q33" t="n">
-        <v>1685.594465388265</v>
+        <v>1791.049965673171</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6837,13 +6837,13 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K34" t="n">
-        <v>397.2373026266567</v>
+        <v>431.0790168988078</v>
       </c>
       <c r="L34" t="n">
-        <v>883.1206864098697</v>
+        <v>916.9624006820208</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765197</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057984</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1003.890654549758</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C35" t="n">
-        <v>576.9899245630579</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D35" t="n">
-        <v>576.9899245630579</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E35" t="n">
-        <v>151.0129847109155</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F35" t="n">
-        <v>151.0129847109155</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
         <v>42.75541829589048</v>
@@ -6964,25 +6964,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.94792342712</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V35" t="n">
-        <v>1820.94792342712</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W35" t="n">
-        <v>1820.94792342712</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X35" t="n">
-        <v>1409.227924594868</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y35" t="n">
-        <v>1003.890654549758</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>165.4810209821281</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059645</v>
+        <v>313.2719753503764</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283643</v>
+        <v>519.5225649727762</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838658</v>
+        <v>763.3527659282777</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180613</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.5068220226462</v>
+        <v>616.8346900457861</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5342589015622</v>
+        <v>616.8346900457861</v>
       </c>
       <c r="D37" t="n">
-        <v>69.5342589015622</v>
+        <v>453.5179171725568</v>
       </c>
       <c r="E37" t="n">
-        <v>69.5342589015622</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="F37" t="n">
-        <v>69.5342589015622</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
         <v>42.75541829589048</v>
@@ -7101,46 +7101,46 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911622</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M37" t="n">
-        <v>546.868586226072</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.396764209472</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1421.479746797809</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>1146.627342970322</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>904.063446416127</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347118</v>
+        <v>807.0006587578519</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>870.211481488812</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="C38" t="n">
-        <v>870.211481488812</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="D38" t="n">
-        <v>870.211481488812</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E38" t="n">
-        <v>870.211481488812</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F38" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G38" t="n">
         <v>42.75541829589048</v>
@@ -7171,16 +7171,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M38" t="n">
         <v>1017.95803136565</v>
@@ -7204,22 +7204,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U38" t="n">
-        <v>1820.94792342712</v>
+        <v>1705.637991316925</v>
       </c>
       <c r="V38" t="n">
-        <v>1820.94792342712</v>
+        <v>1705.637991316925</v>
       </c>
       <c r="W38" t="n">
-        <v>1687.268750366174</v>
+        <v>1705.637991316925</v>
       </c>
       <c r="X38" t="n">
-        <v>1275.548751533922</v>
+        <v>1293.917992484673</v>
       </c>
       <c r="Y38" t="n">
-        <v>870.211481488812</v>
+        <v>888.580722439563</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577478</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259962</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283643</v>
+        <v>653.051952848396</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038975</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.2529601373502</v>
+        <v>788.8072531668702</v>
       </c>
       <c r="C40" t="n">
-        <v>372.2803970162662</v>
+        <v>616.8346900457861</v>
       </c>
       <c r="D40" t="n">
-        <v>208.9636241430369</v>
+        <v>453.5179171725568</v>
       </c>
       <c r="E40" t="n">
-        <v>42.75541829589048</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
         <v>42.75541829589048</v>
@@ -7335,49 +7335,49 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>413.7637441131363</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>523.2582343051844</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M40" t="n">
-        <v>639.2342929421379</v>
+        <v>768.3405774192807</v>
       </c>
       <c r="N40" t="n">
-        <v>1151.762470925538</v>
+        <v>1280.868755402681</v>
       </c>
       <c r="O40" t="n">
-        <v>1631.918817996872</v>
+        <v>1761.025102474014</v>
       </c>
       <c r="P40" t="n">
-        <v>2029.244568218326</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V40" t="n">
-        <v>1175.431859426652</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>900.5794555991647</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X40" t="n">
-        <v>734.4189288494158</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.4189288494158</v>
+        <v>978.9732218789359</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>995.7622890904806</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="C41" t="n">
-        <v>568.8615591037808</v>
+        <v>1082.612977483708</v>
       </c>
       <c r="D41" t="n">
-        <v>445.0872996782122</v>
+        <v>1082.612977483708</v>
       </c>
       <c r="E41" t="n">
-        <v>445.0872996782122</v>
+        <v>1082.612977483708</v>
       </c>
       <c r="F41" t="n">
-        <v>445.0872996782122</v>
+        <v>657.4887956731081</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
         <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7441,22 +7441,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>1820.94792342712</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V41" t="n">
-        <v>1820.94792342712</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="W41" t="n">
-        <v>1820.94792342712</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="X41" t="n">
-        <v>1820.94792342712</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="Y41" t="n">
-        <v>1415.610653382011</v>
+        <v>1509.513707470408</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E42" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F42" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>385.1054302494206</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J42" t="n">
-        <v>464.1447550896847</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K42" t="n">
-        <v>611.9357094579329</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L42" t="n">
-        <v>818.1862990803328</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M42" t="n">
-        <v>1062.016500035834</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N42" t="n">
-        <v>1314.64156567003</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O42" t="n">
-        <v>1542.133429692889</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1721.574083343711</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R42" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S42" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T42" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U42" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V42" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W42" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8040783007948</v>
+        <v>592.672652431039</v>
       </c>
       <c r="C43" t="n">
-        <v>582.8040783007948</v>
+        <v>420.7000893099549</v>
       </c>
       <c r="D43" t="n">
-        <v>582.8040783007948</v>
+        <v>257.3833164367256</v>
       </c>
       <c r="E43" t="n">
-        <v>416.5958724536483</v>
+        <v>257.3833164367256</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>85.52154221128606</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>85.52154221128606</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>85.52154221128606</v>
       </c>
       <c r="I43" t="n">
         <v>42.75541829589048</v>
@@ -7572,49 +7572,49 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>285.9781189255824</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>395.4726091176304</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M43" t="n">
-        <v>924.5709105292751</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N43" t="n">
-        <v>1437.099088512676</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T43" t="n">
-        <v>1976.771053098196</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U43" t="n">
-        <v>1798.440583096771</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V43" t="n">
-        <v>1516.7291157048</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.876711877313</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X43" t="n">
-        <v>999.3128153231185</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.9700470128605</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>857.565274312157</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="C44" t="n">
-        <v>430.6645443254571</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="D44" t="n">
-        <v>430.6645443254571</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E44" t="n">
-        <v>430.6645443254571</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589049</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
         <v>42.75541829589049</v>
@@ -7678,22 +7678,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2079.14225834845</v>
+        <v>1974.231120553814</v>
       </c>
       <c r="U44" t="n">
-        <v>2079.14225834845</v>
+        <v>1716.036785632484</v>
       </c>
       <c r="V44" t="n">
-        <v>2079.14225834845</v>
+        <v>1716.036785632484</v>
       </c>
       <c r="W44" t="n">
-        <v>1682.750908648797</v>
+        <v>1716.036785632484</v>
       </c>
       <c r="X44" t="n">
-        <v>1682.750908648797</v>
+        <v>1716.036785632484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1277.413638603687</v>
+        <v>1716.036785632484</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.75541829589049</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745218</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K45" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L45" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M45" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N45" t="n">
-        <v>992.5205257180614</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7367968989294</v>
+        <v>915.578910533246</v>
       </c>
       <c r="C46" t="n">
-        <v>580.7642337778453</v>
+        <v>743.606347412162</v>
       </c>
       <c r="D46" t="n">
-        <v>417.447460904616</v>
+        <v>743.606347412162</v>
       </c>
       <c r="E46" t="n">
-        <v>251.2392550574696</v>
+        <v>577.3981415650155</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>405.5363673395759</v>
       </c>
       <c r="G46" t="n">
         <v>251.2392550574696</v>
@@ -7815,16 +7815,16 @@
         <v>977.5688445445702</v>
       </c>
       <c r="M46" t="n">
-        <v>1096.275006445852</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1210.770261587372</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
@@ -7833,25 +7833,25 @@
         <v>2131.215415329223</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098197</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="U46" t="n">
-        <v>1457.143326818623</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="V46" t="n">
-        <v>1175.431859426652</v>
+        <v>1849.503947937251</v>
       </c>
       <c r="W46" t="n">
-        <v>942.9027656109949</v>
+        <v>1574.651544109764</v>
       </c>
       <c r="X46" t="n">
-        <v>942.9027656109949</v>
+        <v>1332.08764755557</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.9027656109949</v>
+        <v>1105.744879245312</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,16 +8856,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.757680064976981</v>
       </c>
       <c r="O13" t="n">
-        <v>361.6041474892607</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>231.3726567572035</v>
       </c>
       <c r="P16" t="n">
-        <v>151.15825674441</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>77.77291489872269</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>261.0326869852846</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>158.5724178990222</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>296.8103824110301</v>
       </c>
       <c r="M22" t="n">
-        <v>288.2188056435731</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>533.8804951318516</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>475.6149430409062</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>381.4036089771761</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>323.1380568862307</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>268.6251448311426</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891583</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>307.5560500126504</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>439.3959099530422</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.93656256238711</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>134.878169571333</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10038,7 +10038,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>267.2984471422152</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891583</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>354.3083411156913</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>502.7102109023909</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340884</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>206.4250513711261</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>307.5560500126505</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.5724178990221</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340884</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M37" t="n">
-        <v>156.4817195938952</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713331</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>245.1087987454524</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.60382895134669</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>120.7040241681497</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M43" t="n">
         <v>417.2951947219103</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>265.0931252575127</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>2.757680064977691</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>231.3726567572042</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>293.9261813806275</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>30.54758364170885</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23.77892436995234</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>204.8169565363301</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>143.0410615931925</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>86.82316079097268</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.63980530667521</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>138.6488205903175</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>60.68599229042047</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>190.4533642523149</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>147.9452924264233</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.74951489788279</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>143.1313475279104</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>133.8886923041283</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24135,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24180,7 +24180,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>118.7254851918101</v>
+        <v>155.2783094635297</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7.462045293780903</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>225.9571497022076</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.78579658730769</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>279.8248579901539</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>69.145890586555</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>357.5491349888698</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>361.9891920417577</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>273.7575681851475</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>25.86606685476517</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>291.1335718176236</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.1919990226019</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>127.987180845463</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,13 +25399,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>95.86091185515534</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>260.0850548723201</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7030512222169</v>
@@ -25569,7 +25569,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>75.63933610640152</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>23.09534498426808</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>296.5231777755367</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>64.26173142745421</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>29.62713093979792</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>100.7868196885701</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>36.84290522322277</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>106.1557182275584</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>10.94891006293167</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.90007691171147</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382542.7789489591</v>
+        <v>382542.778948959</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382542.7789489592</v>
+        <v>382542.778948959</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382542.778948959</v>
+        <v>382542.7789489592</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382542.7789489592</v>
+        <v>382542.7789489591</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507165.0492762375</v>
+        <v>507165.0492762374</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>387286.117703527</v>
+      </c>
+      <c r="C2" t="n">
+        <v>387286.1177035269</v>
+      </c>
+      <c r="D2" t="n">
         <v>387286.1177035271</v>
-      </c>
-      <c r="C2" t="n">
-        <v>387286.117703527</v>
-      </c>
-      <c r="D2" t="n">
-        <v>387286.117703527</v>
       </c>
       <c r="E2" t="n">
         <v>230300.1319965441</v>
       </c>
       <c r="F2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
       <c r="G2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
       <c r="H2" t="n">
         <v>230300.1319965441</v>
       </c>
       <c r="I2" t="n">
-        <v>289038.8063230508</v>
+        <v>289038.8063230505</v>
       </c>
       <c r="J2" t="n">
         <v>289038.8063230505</v>
       </c>
       <c r="K2" t="n">
-        <v>289038.8063230503</v>
+        <v>289038.8063230506</v>
       </c>
       <c r="L2" t="n">
-        <v>289038.8063230504</v>
+        <v>289038.8063230506</v>
       </c>
       <c r="M2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
       <c r="N2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
       <c r="O2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
       <c r="P2" t="n">
-        <v>230300.1319965441</v>
+        <v>230300.1319965442</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160778</v>
+        <v>79247.32527160775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>16211.24364361333</v>
       </c>
       <c r="G4" t="n">
-        <v>16211.24364361334</v>
+        <v>16211.24364361333</v>
       </c>
       <c r="H4" t="n">
         <v>16211.24364361333</v>
       </c>
       <c r="I4" t="n">
-        <v>47419.91702277261</v>
+        <v>47419.91702277259</v>
       </c>
       <c r="J4" t="n">
-        <v>47419.9170227726</v>
+        <v>47419.91702277259</v>
       </c>
       <c r="K4" t="n">
-        <v>47419.91702277261</v>
+        <v>47419.91702277259</v>
       </c>
       <c r="L4" t="n">
-        <v>47419.9170227726</v>
+        <v>47419.91702277259</v>
       </c>
       <c r="M4" t="n">
-        <v>16211.24364361334</v>
+        <v>16211.24364361333</v>
       </c>
       <c r="N4" t="n">
-        <v>16211.24364361334</v>
+        <v>16211.24364361333</v>
       </c>
       <c r="O4" t="n">
         <v>16211.24364361333</v>
       </c>
       <c r="P4" t="n">
-        <v>16211.24364361334</v>
+        <v>16211.24364361333</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
         <v>43269.71441650125</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34846.54235038895</v>
+        <v>34824.82870889254</v>
       </c>
       <c r="C6" t="n">
-        <v>34846.54235038883</v>
+        <v>34824.82870889243</v>
       </c>
       <c r="D6" t="n">
-        <v>34846.54235038883</v>
+        <v>34824.8287088926</v>
       </c>
       <c r="E6" t="n">
-        <v>-385870.4819858241</v>
+        <v>-386473.625204013</v>
       </c>
       <c r="F6" t="n">
-        <v>170819.1739364295</v>
+        <v>170216.0307182407</v>
       </c>
       <c r="G6" t="n">
-        <v>170819.1739364296</v>
+        <v>170216.0307182407</v>
       </c>
       <c r="H6" t="n">
-        <v>170819.1739364295</v>
+        <v>170216.0307182407</v>
       </c>
       <c r="I6" t="n">
-        <v>127633.3843861849</v>
+        <v>127247.7918136495</v>
       </c>
       <c r="J6" t="n">
-        <v>185189.5675666663</v>
+        <v>184803.9749941312</v>
       </c>
       <c r="K6" t="n">
-        <v>185189.5675666661</v>
+        <v>184803.9749941313</v>
       </c>
       <c r="L6" t="n">
-        <v>185189.5675666662</v>
+        <v>184803.9749941313</v>
       </c>
       <c r="M6" t="n">
-        <v>91571.84866482177</v>
+        <v>90968.70544663297</v>
       </c>
       <c r="N6" t="n">
-        <v>170819.1739364295</v>
+        <v>170216.0307182407</v>
       </c>
       <c r="O6" t="n">
-        <v>170819.1739364295</v>
+        <v>170216.0307182407</v>
       </c>
       <c r="P6" t="n">
-        <v>170819.1739364295</v>
+        <v>170216.0307182407</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>494.2934179644262</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="G4" t="n">
         <v>534.442728698631</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777378</v>
+        <v>318.0018188777377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31767,16 +31767,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
         <v>285.7487894273646</v>
@@ -31788,7 +31788,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
         <v>8.698570601564924</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31870,7 +31870,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741882</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31937,7 +31937,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
         <v>74.63830611262834</v>
@@ -31949,10 +31949,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
@@ -32244,7 +32244,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N17" t="n">
         <v>354.564865531407</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397735</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32320,7 +32320,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M18" t="n">
         <v>269.3899127906122</v>
@@ -32329,16 +32329,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741884</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003428</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
@@ -32414,10 +32414,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262836</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
@@ -32426,7 +32426,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
         <v>248.1734276171333</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392516</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
         <v>332.3742814427153</v>
@@ -35576,16 +35576,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>118.4094529351994</v>
       </c>
       <c r="O13" t="n">
-        <v>465.0930593762608</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297618</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
         <v>50.0187433478434</v>
@@ -35725,7 +35725,7 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885258</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911599</v>
@@ -35740,7 +35740,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O15" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
         <v>181.2531855058807</v>
@@ -35807,25 +35807,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L16" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>485.0064111831651</v>
+        <v>334.8615686442037</v>
       </c>
       <c r="P16" t="n">
-        <v>236.5820402273862</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784341</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664819</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O17" t="n">
         <v>297.414588889418</v>
@@ -35962,7 +35962,7 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911599</v>
@@ -35971,7 +35971,7 @@
         <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>511.3862575357972</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
         <v>255.1768339739349</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L19" t="n">
-        <v>188.3734100422055</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378324</v>
+        <v>346.4564704682608</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>366.9063468105371</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
         <v>246.2931322782843</v>
@@ -36223,7 +36223,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>407.4108775545129</v>
       </c>
       <c r="M22" t="n">
-        <v>405.3663396202938</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K23" t="n">
+        <v>217.0031433876726</v>
+      </c>
+      <c r="L23" t="n">
         <v>750.8836385195242</v>
-      </c>
-      <c r="L23" t="n">
-        <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
         <v>311.487728566482</v>
@@ -36372,13 +36372,13 @@
         <v>317.285242696961</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>678.8181978665941</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>501.5988228412544</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
         <v>89.79009951709455</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911599</v>
@@ -36448,7 +36448,7 @@
         <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>520.2699592314477</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36460,7 +36460,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>372.1140567181428</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P25" t="n">
         <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675924</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>524.559193400323</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>750.8836385195242</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N26" t="n">
         <v>317.285242696961</v>
       </c>
       <c r="O26" t="n">
-        <v>319.3511514518051</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
         <v>248.1734276171333</v>
@@ -36618,7 +36618,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>214.7158714301856</v>
+        <v>79.83770185885258</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911599</v>
@@ -36694,7 +36694,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R27" t="n">
         <v>148.85927498986</v>
@@ -36758,7 +36758,7 @@
         <v>332.3742814427154</v>
       </c>
       <c r="L28" t="n">
-        <v>377.898942285698</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
         <v>534.8601405048236</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675924</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>571.3114845033639</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
@@ -36849,13 +36849,13 @@
         <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911599</v>
@@ -36928,13 +36928,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K31" t="n">
-        <v>219.4819269776932</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>534.9195310038328</v>
+        <v>345.6585028723063</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876726</v>
@@ -37080,7 +37080,7 @@
         <v>311.487728566482</v>
       </c>
       <c r="N32" t="n">
-        <v>624.8412927096115</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O32" t="n">
         <v>297.414588889418</v>
@@ -37089,7 +37089,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992007</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37147,7 +37147,7 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885258</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911599</v>
@@ -37165,13 +37165,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>339.8256034049028</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K34" t="n">
-        <v>219.4819269776932</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L34" t="n">
         <v>490.7912967507202</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819318</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>311.487728566482</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969611</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O35" t="n">
         <v>297.414588889418</v>
@@ -37326,7 +37326,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
         <v>89.79009951709455</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
         <v>79.83770185885258</v>
@@ -37399,16 +37399,16 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P36" t="n">
         <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>82.59386819622841</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M37" t="n">
-        <v>273.629253570616</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
         <v>517.705230286263</v>
@@ -37481,10 +37481,10 @@
         <v>485.0064111831651</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301857</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911599</v>
@@ -37636,7 +37636,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
         <v>181.2531855058807</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>42.38160322116931</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427154</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
         <v>117.1475339767207</v>
@@ -37718,10 +37718,10 @@
         <v>485.0064111831651</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378324</v>
+        <v>330.5325822284286</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.6225722991901</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>79.83770185885258</v>
       </c>
       <c r="K42" t="n">
-        <v>149.2837922911599</v>
+        <v>414.3769175486727</v>
       </c>
       <c r="L42" t="n">
         <v>208.333928911515</v>
@@ -37879,7 +37879,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179368</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
         <v>42.33856763136926</v>
@@ -37940,10 +37940,10 @@
         <v>42.38160322116931</v>
       </c>
       <c r="K43" t="n">
-        <v>203.2978923643781</v>
+        <v>82.59386819622841</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M43" t="n">
         <v>534.442728698631</v>
@@ -37952,13 +37952,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>103.4889118870002</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297619</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784341</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208252</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J45" t="n">
-        <v>79.8377018588526</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911599</v>
@@ -38110,7 +38110,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
-        <v>494.8828868967644</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P45" t="n">
         <v>181.2531855058807</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38183,19 +38183,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>119.9052140416984</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N46" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>485.0064111831651</v>
+        <v>334.8615686442043</v>
       </c>
       <c r="P46" t="n">
         <v>401.3391416378324</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784343</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
